--- a/99_others/リスト.xlsx
+++ b/99_others/リスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP057\Desktop\アクションシューティングチーム制作\99_others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP057\Desktop\アクションシューティングチーム制作\BIO4-REPRODUCTION\99_others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="89">
   <si>
     <t>エリア１</t>
   </si>
@@ -295,12 +295,16 @@
   <si>
     <t>ギミック020</t>
   </si>
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -313,6 +317,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -359,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,6 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1101,7 +1113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1132,9 @@
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -4379,6 +4394,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
